--- a/biology/Botanique/Syzygium_luehmannii/Syzygium_luehmannii.xlsx
+++ b/biology/Botanique/Syzygium_luehmannii/Syzygium_luehmannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Syzygium luehmannii est une espèce d'arbre de la famille des Myrtaceae endémique d'Australie où on le trouve au bord des cours d'eau, en bordure de mer et dans les forêts subtropicales humides. Il est cultivé pour ses fruits ressemblant à des petites poires, appelés riberries.
 L'arbre sauvage peut atteindre 30 mètres de haut dans les forêts humides mais généralement il ne dépasse pas 7 mètres dans les jardins. Les feuilles petites, ovales et terminées en pointe sont roses ou rouges quand elles sont jeunes. Les fleurs sont crème. Les fruits roses ou rouges.
